--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H2">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I2">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J2">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>558.0412374599729</v>
+        <v>462.7572979958807</v>
       </c>
       <c r="R2">
-        <v>5022.371137139756</v>
+        <v>4164.815681962926</v>
       </c>
       <c r="S2">
-        <v>0.001033229929659018</v>
+        <v>0.00164769530965859</v>
       </c>
       <c r="T2">
-        <v>0.001033229929659018</v>
+        <v>0.00164769530965859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H3">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I3">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J3">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>15102.1775872154</v>
+        <v>13395.16824787915</v>
       </c>
       <c r="R3">
-        <v>135919.5982849385</v>
+        <v>120556.5142309124</v>
       </c>
       <c r="S3">
-        <v>0.02796213046397992</v>
+        <v>0.0476948845317068</v>
       </c>
       <c r="T3">
-        <v>0.02796213046397992</v>
+        <v>0.04769488453170678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H4">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I4">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J4">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>20612.58334436243</v>
+        <v>9349.040651976171</v>
       </c>
       <c r="R4">
-        <v>185513.2500992618</v>
+        <v>84141.36586778554</v>
       </c>
       <c r="S4">
-        <v>0.03816481042857314</v>
+        <v>0.03328822797345868</v>
       </c>
       <c r="T4">
-        <v>0.03816481042857314</v>
+        <v>0.03328822797345867</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H5">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I5">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J5">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>1444.629679606046</v>
+        <v>1425.438929729923</v>
       </c>
       <c r="R5">
-        <v>13001.66711645442</v>
+        <v>12828.95036756931</v>
       </c>
       <c r="S5">
-        <v>0.002674774769399992</v>
+        <v>0.005075423010922808</v>
       </c>
       <c r="T5">
-        <v>0.002674774769399992</v>
+        <v>0.005075423010922806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H6">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I6">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J6">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>15466.17237232111</v>
+        <v>9490.451733014766</v>
       </c>
       <c r="R6">
-        <v>139195.55135089</v>
+        <v>85414.0655971329</v>
       </c>
       <c r="S6">
-        <v>0.02863607762229902</v>
+        <v>0.03379173678027845</v>
       </c>
       <c r="T6">
-        <v>0.02863607762229902</v>
+        <v>0.03379173678027843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I7">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J7">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>1598.987385598512</v>
+        <v>1494.938825065043</v>
       </c>
       <c r="R7">
-        <v>14390.88647038661</v>
+        <v>13454.44942558539</v>
       </c>
       <c r="S7">
-        <v>0.002960572647762633</v>
+        <v>0.005322884589727469</v>
       </c>
       <c r="T7">
-        <v>0.002960572647762633</v>
+        <v>0.005322884589727466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I8">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J8">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>43273.13079395516</v>
@@ -948,10 +948,10 @@
         <v>389458.1771455964</v>
       </c>
       <c r="S8">
-        <v>0.08012148723967878</v>
+        <v>0.1540784660819706</v>
       </c>
       <c r="T8">
-        <v>0.0801214872396788</v>
+        <v>0.1540784660819705</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I9">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J9">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>59062.41069612282</v>
+        <v>30202.10358276185</v>
       </c>
       <c r="R9">
-        <v>531561.6962651054</v>
+        <v>271818.9322448566</v>
       </c>
       <c r="S9">
-        <v>0.1093558080524904</v>
+        <v>0.1075377192983407</v>
       </c>
       <c r="T9">
-        <v>0.1093558080524904</v>
+        <v>0.1075377192983406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I10">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J10">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>4139.37981548716</v>
+        <v>4604.88469450652</v>
       </c>
       <c r="R10">
-        <v>37254.41833938444</v>
+        <v>41443.96225055867</v>
       </c>
       <c r="S10">
-        <v>0.007664184702648488</v>
+        <v>0.0163961691053105</v>
       </c>
       <c r="T10">
-        <v>0.007664184702648489</v>
+        <v>0.0163961691053105</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I11">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J11">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>44316.10581217579</v>
+        <v>30658.9324998952</v>
       </c>
       <c r="R11">
-        <v>398844.9523095821</v>
+        <v>275930.3924990568</v>
       </c>
       <c r="S11">
-        <v>0.08205258647101382</v>
+        <v>0.1091643059936493</v>
       </c>
       <c r="T11">
-        <v>0.08205258647101382</v>
+        <v>0.1091643059936492</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H12">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I12">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J12">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>1870.586624804978</v>
+        <v>871.2334111950547</v>
       </c>
       <c r="R12">
-        <v>16835.27962324481</v>
+        <v>7841.100700755492</v>
       </c>
       <c r="S12">
-        <v>0.00346344670792717</v>
+        <v>0.003102116836322103</v>
       </c>
       <c r="T12">
-        <v>0.003463446707927171</v>
+        <v>0.003102116836322102</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H13">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I13">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J13">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>50623.37602263837</v>
+        <v>25219.09038857627</v>
       </c>
       <c r="R13">
-        <v>455610.3842037453</v>
+        <v>226971.8134971864</v>
       </c>
       <c r="S13">
-        <v>0.09373068464447383</v>
+        <v>0.08979518448887447</v>
       </c>
       <c r="T13">
-        <v>0.09373068464447386</v>
+        <v>0.08979518448887443</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H14">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I14">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J14">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>69094.57602478325</v>
+        <v>17601.44381060619</v>
       </c>
       <c r="R14">
-        <v>621851.1842230492</v>
+        <v>158412.9942954557</v>
       </c>
       <c r="S14">
-        <v>0.1279306601978983</v>
+        <v>0.06267176452009886</v>
       </c>
       <c r="T14">
-        <v>0.1279306601978983</v>
+        <v>0.06267176452009884</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H15">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I15">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J15">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>4842.482553381554</v>
+        <v>2683.674631555748</v>
       </c>
       <c r="R15">
-        <v>43582.34298043399</v>
+        <v>24153.07168400174</v>
       </c>
       <c r="S15">
-        <v>0.008966000309904206</v>
+        <v>0.009555501603571718</v>
       </c>
       <c r="T15">
-        <v>0.008966000309904208</v>
+        <v>0.009555501603571714</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H16">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I16">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J16">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>51843.50767387023</v>
+        <v>17867.67852813004</v>
       </c>
       <c r="R16">
-        <v>466591.5690648321</v>
+        <v>160809.1067531704</v>
       </c>
       <c r="S16">
-        <v>0.09598979464486598</v>
+        <v>0.06361972081864273</v>
       </c>
       <c r="T16">
-        <v>0.09598979464486598</v>
+        <v>0.0636197208186427</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H17">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I17">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J17">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>350.8091686533974</v>
+        <v>309.312188780976</v>
       </c>
       <c r="R17">
-        <v>3157.282517880576</v>
+        <v>2783.809699028784</v>
       </c>
       <c r="S17">
-        <v>0.0006495335977343201</v>
+        <v>0.001101338098571021</v>
       </c>
       <c r="T17">
-        <v>0.0006495335977343203</v>
+        <v>0.001101338098571021</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H18">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I18">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J18">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>9493.890430645848</v>
+        <v>8953.481290915945</v>
       </c>
       <c r="R18">
-        <v>85445.01387581261</v>
+        <v>80581.33161824349</v>
       </c>
       <c r="S18">
-        <v>0.01757822018045797</v>
+        <v>0.03187979788119834</v>
       </c>
       <c r="T18">
-        <v>0.01757822018045797</v>
+        <v>0.03187979788119833</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H19">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I19">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J19">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>12957.97289058466</v>
+        <v>6249.004045076808</v>
       </c>
       <c r="R19">
-        <v>116621.756015262</v>
+        <v>56241.03640569127</v>
       </c>
       <c r="S19">
-        <v>0.02399207176731735</v>
+        <v>0.0222502264139382</v>
       </c>
       <c r="T19">
-        <v>0.02399207176731735</v>
+        <v>0.0222502264139382</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H20">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I20">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J20">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>908.1575032364375</v>
+        <v>952.779431546208</v>
       </c>
       <c r="R20">
-        <v>8173.417529127937</v>
+        <v>8575.014883915872</v>
       </c>
       <c r="S20">
-        <v>0.001681480597131674</v>
+        <v>0.003392469891445861</v>
       </c>
       <c r="T20">
-        <v>0.001681480597131674</v>
+        <v>0.00339246989144586</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H21">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I21">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J21">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>9722.7134985222</v>
+        <v>6343.524803978641</v>
       </c>
       <c r="R21">
-        <v>87504.42148669978</v>
+        <v>57091.72323580776</v>
       </c>
       <c r="S21">
-        <v>0.01800189288859399</v>
+        <v>0.02258677737009256</v>
       </c>
       <c r="T21">
-        <v>0.01800189288859399</v>
+        <v>0.02258677737009255</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H22">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I22">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J22">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>1288.635996247672</v>
+        <v>670.5240292959413</v>
       </c>
       <c r="R22">
-        <v>11597.72396622905</v>
+        <v>6034.716263663472</v>
       </c>
       <c r="S22">
-        <v>0.002385947830342132</v>
+        <v>0.002387470284896807</v>
       </c>
       <c r="T22">
-        <v>0.002385947830342132</v>
+        <v>0.002387470284896806</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H23">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I23">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J23">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>34874.14254400238</v>
+        <v>19409.27182685931</v>
       </c>
       <c r="R23">
-        <v>313867.2828960214</v>
+        <v>174683.4464417338</v>
       </c>
       <c r="S23">
-        <v>0.06457051097454551</v>
+        <v>0.06910872349611089</v>
       </c>
       <c r="T23">
-        <v>0.06457051097454553</v>
+        <v>0.06910872349611087</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H24">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I24">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J24">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>47598.84232588795</v>
+        <v>13546.53170282453</v>
       </c>
       <c r="R24">
-        <v>428389.5809329915</v>
+        <v>121918.7853254208</v>
       </c>
       <c r="S24">
-        <v>0.08813067065094002</v>
+        <v>0.04823382979707014</v>
       </c>
       <c r="T24">
-        <v>0.08813067065094003</v>
+        <v>0.04823382979707014</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H25">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I25">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J25">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>3335.957419314593</v>
+        <v>2065.426215463619</v>
       </c>
       <c r="R25">
-        <v>30023.61677383133</v>
+        <v>18588.83593917258</v>
       </c>
       <c r="S25">
-        <v>0.006176624267756068</v>
+        <v>0.007354164056199485</v>
       </c>
       <c r="T25">
-        <v>0.006176624267756069</v>
+        <v>0.007354164056199482</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H26">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I26">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J26">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>35714.68397902008</v>
+        <v>13751.4329075289</v>
       </c>
       <c r="R26">
-        <v>321432.1558111807</v>
+        <v>123762.8961677601</v>
       </c>
       <c r="S26">
-        <v>0.06612679841260626</v>
+        <v>0.04896340176794329</v>
       </c>
       <c r="T26">
-        <v>0.06612679841260626</v>
+        <v>0.04896340176794328</v>
       </c>
     </row>
   </sheetData>
